--- a/target/classes/DataTables/Login Page.xlsx
+++ b/target/classes/DataTables/Login Page.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Business Flow" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>TC ID</t>
   </si>
@@ -40,7 +40,16 @@
     <t>Password</t>
   </si>
   <si>
-    <t>TC1</t>
+    <t>LoginPage_TC1</t>
+  </si>
+  <si>
+    <t>tejeshkumar.gangari@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>loginToApp</t>
   </si>
 </sst>
 </file>
@@ -97,12 +106,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -387,13 +399,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -417,6 +429,9 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -427,15 +442,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -453,6 +468,12 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
